--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/38_Iğdır_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/38_Iğdır_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2359BCF2-5B65-40EB-809E-F860A9220602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12F10CFC-6D11-4625-91A7-ACD439FEAD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{F50EE595-47CA-4738-B29E-516E82228F18}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{6C786426-55C5-4726-8994-8EDB8842EB39}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -946,14 +946,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{D4C2A9CC-98C8-488F-B7F7-41BE8CAFBB90}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{568317AB-3973-4354-ACAB-123147B3315D}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{D0799231-9353-4D5F-99A9-5EF4A74E7359}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{A9BFB07E-B687-49BA-B638-749E90AD2DBC}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{B722473B-4453-4C0B-9887-7B885B33F8E9}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{EE7DB941-1C4B-462F-BFE4-F58A8ED8E851}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{7D52E7FF-8FE3-4CE0-9813-20FD0A8A515D}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{F5300BA0-F665-46FA-AB16-C641196C49D9}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{5703AAAE-037B-4953-91A9-BBE017455BD4}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{CE27E281-9D90-434F-80AC-72DD6C9C8019}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{4AF4DBD4-0798-4829-AA77-639E1B85B72B}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{A98B03F8-0B72-4305-AF38-FCB3B4DC2DEF}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{F5D8E9E4-F653-4877-AB23-E88FC6206E0E}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{58BD9A03-08C6-4E53-9604-0B297D2ACB69}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{888A59C6-3475-467F-BD1C-127635593AC3}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{C5B937B9-380D-4D7A-A8E8-AF4AA61C4F60}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1323,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DEC4E68-7274-4614-9D8A-150BBBF2382C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F8E912-74FC-4E18-884A-B5F86F5A0200}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2608,17 +2608,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CEAACF49-493B-4397-9783-D9C127DBE207}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E3FC5035-5673-4669-A00F-216362F227BD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A5897DEA-5A2B-4B22-A03D-E46DE8A69754}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{974DB38F-AED3-483C-A81A-869644B0AD5D}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6440986E-5E9A-41AA-8007-B8D014E62AF0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{58D97230-85E5-463A-8B91-71D60CCD95BD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0BDBB4C7-01F8-49D4-A082-97F92950BF20}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6C19BC5D-A35C-43EF-A717-F911656181D7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BF945014-282A-4E28-9A5D-2B358FCADEB1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6A429F7A-6DC4-4B73-A1DC-59159FD548B5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6B5DD97B-395C-48FA-97C1-08A4502C370E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{23AB9A08-2E78-4213-A171-6255F501889F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A8FA684A-448E-4233-89BC-47CA15BE95F5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4BDFE924-C7BA-45CE-BE70-0A06E6F437F8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{75C2BF08-C335-467A-9317-8A3AA156B588}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0C826BD2-8C63-42CA-8E0B-4F5F71ABCBA5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9A758E2F-ED96-4190-A004-74A461EA4F20}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1D152C20-C31D-4BFE-82EA-282A5908C3BD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7640244F-1771-4434-8E3E-EEB0AC679F0D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7960944F-10C9-4C84-8AD2-6561BE3827A7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1A20C901-88FC-419B-8A9F-A87D2DCABC89}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0441088C-81AE-4852-B1D2-D2BEAC5B0C7D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2631,7 +2631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DFB5E2-BDD8-48A8-9896-C192BA7C625E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F7E1AF-73F0-4E56-AE49-C22EF193B1EC}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3898,17 +3898,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3BDE022B-8AB6-4B06-862E-BEAA72CB7FE5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EE52C293-AA64-4264-8F63-0062B7E85B84}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F9E2B3F7-3EEA-4436-8284-0AD8BA1FD2F4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{739D150B-5AC1-4B81-B33A-D902A58BA095}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{33094063-28CC-4399-8E1E-A19A9DADCD5A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D477A96B-4071-41BF-A132-21D33A6F8767}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{29EF0345-AB42-4616-AAF0-2C8B5FA6A187}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{51F0B761-DC67-4B76-BA8C-E26E82CC6C25}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EC7546A5-A268-49D2-B7FB-9A5138ECE5A9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1D30C77F-FAEA-439D-9613-B7061D64B8D5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8B96542E-DA27-44B1-B0CC-3F3D0261E3C0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CEB113F3-E6C8-4958-8B6A-1FEE1D3AF840}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A129F835-BC5C-4190-B50D-B1A0F3B4ABFF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1CDC2CF0-2822-4546-85EE-D113EC154D5A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8C07CD86-5AAC-4DB8-885C-BE707592E00B}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DD14CABD-2607-4C24-92F0-E469CB0D5F82}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1E28E598-5811-4E46-A12E-6F5567818527}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5D568BAA-01B8-40B6-8F18-CAA593609A24}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4B530B38-3034-40CC-9A91-88AFA81B3397}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5BEC0101-27BB-47B9-A840-D00DA23AE747}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0E81D766-034D-4217-95AB-605C495816B2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2B43C756-959A-4F2C-8439-1F5814249A2B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3921,7 +3921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E85CBF-F94F-486A-844D-29D374AAA46F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B2E63A-F3FC-423C-B821-1F7C5AAF326E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5188,17 +5188,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9411FBBC-B335-4861-BE34-04E0748CBC1B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8B68B0F3-9142-4AE6-948F-710CD461CD42}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D7EE9682-F925-4EEB-8C05-B9215CEEB2F1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EF648504-7A01-462C-8A86-9CF660931C2E}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9074947B-A3E5-4CE2-B9EF-C65C4B3D3F33}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3B0E8579-EC62-41B6-B8F7-D3C419CA4AF2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2604C3E3-8DC9-430A-AFB5-5B3ED8074F28}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{62C9AC51-666F-43AD-B5CB-E005057F448D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A32FD3E7-93EF-4DB2-9C55-881EEA0C92B2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{724672C4-6A9E-43A2-B133-8861C7E98ACE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A1654C03-E9B5-4DD4-9173-6FED35489B34}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1A408227-06BB-4FA0-9BFB-8F90038BA63A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EDBBA97C-F63F-49C1-8E2D-FD66D032878D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B93B17B0-A30C-4E79-A6BC-50BBC015E36A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7ED5BE9B-CCE4-41F1-9A03-541D922C6E95}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E2CED9BC-9A54-4CDC-9A77-719511928DA4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C913933A-E9EC-45DB-ABD5-DE61CC3A7E93}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8F8A8002-FA70-43C4-BD95-2BCFADA9DBB5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6B183CD5-BBD3-43CF-B9F7-A6D8D0B6FF62}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B1DB94B4-D084-410E-8159-6F8012CC536A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B1D2CEAB-06A5-4BE5-B589-7D43D21066B7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8316CBAB-1086-476B-9F25-B67B2362ED37}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5211,7 +5211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E5C020-7DAB-4415-BECD-AE4D278D06A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37A47F6-FED3-4734-983E-9C06E5BFB9FA}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6466,17 +6466,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{46A5BFBB-F371-47AA-BA2C-EA196AB60598}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0F0A4D2D-5525-4EEF-AC2E-8EFD9CDE84D8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3DA8B35B-2FFC-463B-8E8E-8BCA33D03DA2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9976A8D5-4DDC-400F-90F2-2A8638F225C9}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F34AA6BF-D883-4E7D-9634-5F14E9B954C0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{006F5838-B495-40F3-9015-D27DFA9E6419}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1EC0E774-12D4-4F27-A8D8-60004072ED8A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{84186063-B9E2-4475-B742-B91D610F3C91}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{063C00D1-B6BE-49E8-9BDB-1ECF7FF0EC82}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0D7E7E6F-CFB6-4ED5-8F04-DC9F17547561}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B28E5FC1-E794-480C-B25A-B958223C16A6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{457FD7DF-B8CA-41B3-AAC2-BD2E667B3960}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7ED9A24E-81AE-43AB-B9B1-AC094A4B9FA1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7D330BDF-B8D5-451A-A991-23D4CC3C6FA4}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{252344C6-92D3-4653-9275-AE5E946DBE1D}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{22BC15F2-6E70-4022-8994-769BC75146C8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A7C71FAD-B21E-4631-80EF-D08FE4077600}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A9E73F29-36B7-447A-BE0A-8B068C0E97BF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C1E4ED16-A739-433D-B45A-52598BD03162}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B566315F-2D5F-4D95-8C19-816FF6C9AAA7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F8C857DE-D151-42F3-863D-0812E851AE74}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3BA03746-2638-44EE-9909-194A3166C41C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6489,7 +6489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C07BE6-253E-449A-85AF-F4DD10612DD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8464B6A-1ACA-4344-8F78-027D81B10FAA}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7774,17 +7774,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4D5E2876-9205-4E5A-B9B5-BA7D12A2D395}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D69A0178-6491-44E9-BEA9-C8D063B1BD3C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{88A1B73E-4964-4A89-B6DC-60026D7374AF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B720628D-B16C-494B-B13D-BC4CB1BD49FB}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{ADD90B96-30F1-4DB1-8DD4-DDFB3E657444}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{79688B9E-1C82-425A-87D7-35FC4B59634D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B53517BF-7376-4906-A65F-A0DC4A97FA9D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6AC296FC-7042-4DEF-80B6-308EF689A606}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1762605B-06F3-4914-9FF8-0BE3825AB29B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1ABB2A88-7173-4336-A945-384FE66AB52A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{39F54A2B-7537-41FC-A375-23D890BD19BB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{75C846CA-0197-4136-9E93-86489E51105E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8B82614B-F2B7-48F3-ADE1-A808158150C5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5D2A4FA3-2DFD-4910-8726-FD3F3DBC5F04}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{677DA723-98C2-4EDF-B4BE-229B8332E7FF}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{893B6801-2E09-40FB-A847-3536C044DCD3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CBDC371B-6316-4507-81CD-76C92B6831B1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A69BF7D5-232B-4DFB-B322-1F1E24B201C4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F44FC8AA-20ED-4A8E-9C89-379110A7C03E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D6B21C07-E425-40C4-A409-F6479DA6E56B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3D2A09FC-D061-46EE-A784-DD01CF56697A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2B0B2083-7F87-46F4-90D7-C0F19CFE54E7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7797,7 +7797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9123D92-05C7-4EB5-B85D-61F8D2BEF1F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD1E080-7DE9-480C-A388-043B5F1EC6C1}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9082,17 +9082,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D394CE10-EF4B-4FDF-B209-C30A41C9D056}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5EDE6B19-5B95-404B-B0A3-5FB4C2AF4098}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7BF9804D-11D7-4C2D-8AE3-50F88C9152A8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D9F61193-52F0-4C45-B7EF-F950D8B8DF75}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D1673A26-1420-414D-BA69-F5CFD434531A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6700C024-FD8B-4468-8522-2AC85B7A3068}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BBF1336D-2196-4914-8D6B-896FE068D2B2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9D4AD9D4-E693-43B6-90DB-DFDE176157D0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{850A1BA6-2C12-488F-8109-FC03E6A19318}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8EA94F71-C964-469E-B76F-19739A371FBA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4E5FACBF-AEA1-45B1-9354-0643D17AFB91}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{183F60FC-59E6-467A-ABEC-57C068D04AE4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{22F3FC2A-43B2-48CB-8F22-CD0705A87B99}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7620C24B-8F07-404E-9B1F-AE4585BA4DFB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{222741E4-B15D-476C-9DD5-0AF4E665C46D}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EFAA4CED-DDDA-4335-AF80-60E566C88F37}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1FC55061-E487-4307-B946-308D853AB07E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2784C5D0-D731-4D4A-92FE-5FFCAA13F318}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{760F8A67-DF25-4E5A-B374-6CDB2B1965C3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EC4C5445-BE4D-4199-AE48-262C6C5BE874}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{982ED550-3FDC-48D0-A3E4-6C24B76D6504}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E493041A-4F8F-4AC4-B19D-6D4C60FA99D4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9105,7 +9105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A27BE3-4582-4ABE-BBC3-ABC3874B942C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A694538-24D6-422A-A3A5-F6074E6D9DFB}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10386,17 +10386,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CE437D8E-80BD-4606-A064-545296D4E995}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C6C6E266-3648-435B-BE51-0627E4D1FA4E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D985D366-DFC5-4FB5-B7A8-A44D78EBD81A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A2BBCD3D-154E-4191-9EBE-01ADEFB7B151}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DED321EB-2FD1-4B38-87E4-EAAB8DAEC2F5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C0BBC23C-8A89-4745-A639-2301FFE6B47B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D7000D4E-5241-4212-9A78-91A02026DD43}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{594FF917-DFA0-4A3D-B5CF-DEB17A035C70}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{08CD3955-398A-462B-B75F-BE68781DBF5F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8936513A-AC48-4C29-8DF3-4B232B16AA1B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CBFE310D-BAFE-476E-8863-6FA537F74FC2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{87AE1E15-D988-4337-877B-53716B2A94A1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{610E4C2E-95E5-4263-9921-D18EAE5301F7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AA282607-271E-428E-82D9-462AA0E8EF02}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4FE26198-8298-4970-A41F-7814C171FA5E}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AE7A7F9B-C49E-4F47-B503-662E1C948AA2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EFB09734-E5B4-418A-8C30-807CA9DDCC5E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F16D951F-9675-470A-9653-FBE13931E883}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6B8A5AF4-0A47-420F-AB49-9D1957F0B234}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8FE0E4F4-DF0D-4DAE-B07D-F0FD1A63ABCD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8A7B589D-EA9E-4EC6-8B28-CE034E10812D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1EEB693D-5AE5-4E06-A7C4-1DC13B07780F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10409,7 +10409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E68349-821D-4BED-93A4-C01DE3F61AFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8CE432-020E-42EE-974F-77DF737F3E1E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11690,17 +11690,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C3B448F8-8065-492C-8C4C-8D18D8E4DF30}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{30FDFD62-EC3A-40F3-BA66-DA3039FE10EE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CD788EC7-17BD-44BC-96AF-12C3F6C07AD2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B44EEB74-2BD4-4105-ABBF-4AC5F603198F}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F2ECB2BF-0145-41B3-A8D3-46221B487C6F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{11C4EA40-859E-4060-8994-59E652D023AF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2F92EFBF-1086-4DF4-8A9C-EF146D24D211}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1B688671-8281-4C92-8A1D-6446EB0B3031}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D6AE87DE-6F92-4F63-B2BA-4CEC2503C52C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F7738652-1A6B-4DC9-B88D-7A61754E0762}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7BCE2ED9-F8BD-4CC5-B6B2-9E7C6EA54D26}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B52FE75A-B340-402E-8450-4D92C0D71976}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9C64CD21-A3CD-4DB7-B670-DADD134A0346}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{08923272-C73E-41F6-8E33-2630690348A2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{02C66DB0-7A72-40CE-9D2E-D54987BEC71C}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6B40F620-0887-4F4E-816F-457B6A2DBBBB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{47F2764C-048A-464B-AA01-E17F80A2999C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{39C42507-B942-4899-8ECE-BCD41C8C3340}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C5F29E87-96F4-43F6-BCE7-15269101C1EC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{18C1C71A-E090-47F4-BC10-C5613B6A44D0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C6C785A3-6151-4C48-AB03-D121AE9B2437}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{39919C18-1AC4-41BD-9DDE-A75B270BE15A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11713,7 +11713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3304118-C487-4FA2-AF6F-BBF577941838}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4EBA5C0-9A05-457F-83EF-D1163ED9ED34}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12994,17 +12994,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D41087A4-28BA-4916-AC34-312039DEDFDB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EAB3A327-171E-4676-B4E0-58BE7A7C166A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B68280BB-5566-43DB-8D73-150852499C70}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B898F967-DF38-46CA-931F-84A114674191}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{37EB66A7-4030-48D3-93DA-EA321947FA59}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{792CA7B9-7D0C-4329-BA50-965565056750}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A931CDC2-8D05-4864-8F85-174C6A0E586D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0F1D9832-0374-4EB4-A683-00532A59771D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{68264334-E0F5-4FF7-BF59-029E3AFA55C1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CEA97101-2E8C-4386-A841-E4BC142DEBB2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1FE01202-3320-4B9F-A920-1EF22224103C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9F042061-C3C8-45B7-8C62-4AA7543C8BA5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8F77B7C9-A5EB-4E24-BC74-C5D63C46466C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{47569539-33B4-46F5-A5DA-3429D61025A9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7F3118E7-DCA1-4A66-A177-73EC442001F7}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{64B4878A-D86B-42E2-9E3D-E6A46A7F8BC7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{42203590-EADA-4E95-A749-14DD67A3E7B2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{30E6B5E5-E678-4754-91D3-7EBBE2CD5FDB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{837D7A94-A345-4598-808C-74E35E95B999}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3F291830-05B2-4FC7-92C1-28C6A9129223}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6274698E-66A5-425C-9BA2-2814C2792389}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AC5013B4-1F6E-4C34-83CC-ADC907DC9014}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13017,7 +13017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F98907-1C09-4D76-B3A3-5DCCF52E69C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A5A2DA-7A93-45B4-BA82-F76441A708FB}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14294,17 +14294,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{09090356-B9C6-42DB-BCB5-64DF65B4F435}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1E5157CC-CA84-4841-A91E-D7F02B6765AB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{03546A0C-E47B-4680-ABBF-8D69EA6879C0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{02166CC2-E243-449E-903B-3B30DEBFAC24}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FB5BF19D-9FDC-48A0-90CD-6A2410D5E131}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{615F9022-82AA-4F8D-9B16-3257F8804C3A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0EE6EE22-81B9-4E0D-A02B-3125398B70AB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2E3EF59B-12A7-4CDF-9DA8-B1B3D41C7983}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F1850E63-85D4-4F12-8828-F9BCBE06F725}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3F363C2A-94BA-4423-8C64-021413D62FF7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{08692873-7BC7-44BF-8073-DE5F7AB7F757}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC376DBE-E03B-4432-AC12-804E868A2CA7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5609FF31-EE38-454E-8C86-5BFAA664853E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F37AF7C2-8143-40B2-8DFB-2D43C8343CEF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{449AFE0D-5A7A-432F-A7E9-299CB3592D79}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{16A6C5F2-3758-4E5E-8FAA-A74B00B5E081}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F93726B8-10A0-4AA6-891E-8D6B697758E4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{526CC713-07EC-4D3D-B962-AA9916C6C84B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{384D2E9B-E918-46F9-BC60-5E2B39F302DC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5601D645-84CE-43B6-AD6E-45C14834C8FB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C6BB0A6E-D94C-4F57-B292-0B07F5DAD986}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{75482631-CBA3-4E5A-9504-72D1FF027DDF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14317,7 +14317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9940EB-7681-4982-B2C1-48F223C72FDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF2E2A3-0A41-4855-8569-E53983E12B7A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15594,17 +15594,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FB08F3B0-C471-45FC-9CF7-5DABB61907EB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C3356F0C-10BE-42B3-9FC4-FF42E8E15E13}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{20FB4FDE-231B-43FA-B961-09E10D7015F4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4C3EC072-4479-4969-A283-F2962324B187}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{889ADD00-BF5F-4BAB-A824-0F22BFCF7400}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{943C444C-5B9E-4DE3-BF58-C92951BAB179}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1389B002-C640-48B5-A177-A4A956525984}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{91942AF6-D74C-4B66-9934-AFDAC1725C81}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DF60BF28-3872-43E1-B254-1D7A3C17B06A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EC12D3C3-B0D3-4D90-B9AB-ECAFD6D46861}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6C2534C9-188D-4617-B1AA-F48B45B3980B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6824BD38-AF28-4D7E-9B78-9C82717DE756}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F7BEFBE1-4FD9-488E-8084-4D7DCF12DD46}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B46E1CD0-CD56-4FE5-84CA-37B434649179}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A2B0ABB8-C360-49FD-812B-5D6E03A668C7}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F68A3B78-6C12-49C5-BBF3-78D6A9511D49}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{023308F5-6208-4DB1-985A-EC0D2050C909}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{60BC478C-DA61-437D-8AAF-E4162C7C3689}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{42F6C16A-505D-4886-B6CE-54E6449E8A15}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D920FE34-CFA8-4106-85C1-2C1A2FEC45A5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1BCCB148-9123-4FEC-8102-9189FCEA6200}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CCF16233-592F-4D48-A26E-967305B56A38}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15617,7 +15617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DC1FDD-BD22-4D7C-9D84-6E52CB3ECC4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904F7E61-8CE1-4E85-9B6A-BE5B163EF8A7}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16892,17 +16892,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{75744874-DB11-4CEF-BBA5-F1E1A5DE2C78}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1AF98A17-D07C-4CAC-81B3-D96BC9FA9BD3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{16961DD8-5688-4553-85E6-E3BB937C44DF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4E979E97-52B2-4E08-A9C8-61837A527CF6}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6D89BB07-4DEB-43A2-87FA-64E8E0F6389A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8604D6E2-490A-4655-A4C7-0C039F12DB2E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DD4B6CE2-CBC7-4434-AB47-33BF7FB5D4A6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{410B497F-00B9-4600-B167-3DB3959823A8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E7409250-939D-413A-9A59-DD73289B3543}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7882107C-53A6-4CC1-8447-311C05B5D17C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2C6FA20D-DBF3-4687-BE0E-E3E050FBEDDF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{59C83022-74AE-42B3-BAE9-7460ACF400E0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{441A0D77-E8FB-4202-BDB5-15271A7D4B6B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{86874995-6CE4-4109-AD6A-BAD906E31CCE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{94B06B03-78EE-44DD-86D4-D1D2EC2765D2}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A833C1CF-55A5-4651-8229-090B6806477A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DAF2EF6A-160E-4823-9CA5-7C661D27CDC3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{216D1F53-12A8-4968-B66C-9D2272032096}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C21D0478-31CD-4151-8BE4-8160403E465D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8E77AA5D-66FC-42E5-95A4-9BA6422B9F31}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B08D09DE-1B44-43A3-8A0F-46340005E2D5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{569A270E-B007-4E87-99F8-B0104E6A7DDC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
